--- a/data/trans_dic/P37A$medicoenfermedad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoenfermedad-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02168940379564634</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04810634775500774</v>
+        <v>0.04810634775500773</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01900779765332441</v>
@@ -697,7 +697,7 @@
         <v>0.02545605123069214</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05050545939908151</v>
+        <v>0.0505054593990815</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0125345801020049</v>
+        <v>0.01340042892948349</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008854904798157707</v>
+        <v>0.007283682959907508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01436936102984012</v>
+        <v>0.01446374154635405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03533397693089363</v>
+        <v>0.03695466411853651</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002622443427720754</v>
+        <v>0.002623721486622015</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01929413130128944</v>
+        <v>0.01737169240018262</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008685076582630116</v>
+        <v>0.009103748049768786</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03385979959746449</v>
+        <v>0.03371105133562948</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009971836337701299</v>
+        <v>0.01128830784569558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0154374140924955</v>
+        <v>0.01535632746849654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01619717867936899</v>
+        <v>0.01576704938700598</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04036516486625081</v>
+        <v>0.0392545277250026</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04570962629078065</v>
+        <v>0.04638905589393771</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04041582637217485</v>
+        <v>0.03698255294983617</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04767814849768666</v>
+        <v>0.04837512701183313</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07144691198922502</v>
+        <v>0.07245745690797732</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02531677896411833</v>
+        <v>0.02598388105272045</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06606364401941296</v>
+        <v>0.06561067347217489</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04053924493104831</v>
+        <v>0.04211797365080573</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0672361680463477</v>
+        <v>0.06609282898669923</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03257451167522336</v>
+        <v>0.03211324798401475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0421669807317429</v>
+        <v>0.04207929844142182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03887077332053476</v>
+        <v>0.03852369024971528</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06385079035620152</v>
+        <v>0.06329021525923285</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03316327311268995</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07706698164318308</v>
+        <v>0.07706698164318307</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02018320158047888</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0124565561687446</v>
+        <v>0.01429529637894765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009855402657714778</v>
+        <v>0.009947541097665519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0095316428020309</v>
+        <v>0.01015818097838774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03234892646510414</v>
+        <v>0.03116854910613279</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005200167286458684</v>
+        <v>0.003114700719505743</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005942575830601834</v>
+        <v>0.007714239630672995</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01691369410595333</v>
+        <v>0.01630707110595202</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05662177656107384</v>
+        <v>0.05788643850270515</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01120747964244812</v>
+        <v>0.0115457610465775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01083593181400366</v>
+        <v>0.01088364063056276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01677017107999445</v>
+        <v>0.01727826274942295</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04890810478315021</v>
+        <v>0.04798269672522507</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04940143312202956</v>
+        <v>0.04501206613516593</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04266303518054367</v>
+        <v>0.04184170445770412</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04318995879882432</v>
+        <v>0.04630937502396556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06773039589739513</v>
+        <v>0.06822793730615356</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03059212097792441</v>
+        <v>0.03001779779259332</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04699030664667795</v>
+        <v>0.04517567879439974</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05783632598457748</v>
+        <v>0.05614317363415355</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1024143138974317</v>
+        <v>0.09895576350765145</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03236969105956013</v>
+        <v>0.03175961477186249</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03660729413300839</v>
+        <v>0.03678573772041625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04359264011448025</v>
+        <v>0.04384933175029761</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07832161090273493</v>
+        <v>0.07574704281375559</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04720247978844604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05459199225422172</v>
+        <v>0.05459199225422171</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03164391531405506</v>
@@ -957,7 +957,7 @@
         <v>0.02351363076425374</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06647302721558415</v>
+        <v>0.06647302721558414</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03030082476808113</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01751559030421487</v>
+        <v>0.01555771932774008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03874340662370914</v>
+        <v>0.04069916320030522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03159969642350777</v>
+        <v>0.02950433887664809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03630309622904963</v>
+        <v>0.03940365262906251</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0115638447832638</v>
+        <v>0.01124669673804812</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0106199061704755</v>
+        <v>0.007758726544834598</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006143310357214968</v>
+        <v>0.006094894166953929</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04236541899337258</v>
+        <v>0.043260262550563</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01896326613888446</v>
+        <v>0.01905239435060693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03437966497679624</v>
+        <v>0.03568493040367168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02889184423761317</v>
+        <v>0.0271709949273287</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04287154879323377</v>
+        <v>0.04392261219628753</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0500966779044883</v>
+        <v>0.04941076049095551</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07920460619057247</v>
+        <v>0.08057664550953993</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06790474915917576</v>
+        <v>0.06867022135116072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07734108098435867</v>
+        <v>0.07580666359536653</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07194142904882724</v>
+        <v>0.06864347349695854</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05015540613766078</v>
+        <v>0.04683122299559271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06645338726478486</v>
+        <v>0.0616846235965604</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1023330205315802</v>
+        <v>0.0988401357543377</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04665004705384754</v>
+        <v>0.04918556981449854</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06574673488072359</v>
+        <v>0.06605581874575339</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06039896862506452</v>
+        <v>0.05952562048899183</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07428428489245847</v>
+        <v>0.07715539321798023</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.03464898975613575</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05542361617648071</v>
+        <v>0.05542361617648073</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03698648041454378</v>
+        <v>0.03694742430272676</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03027717044591952</v>
+        <v>0.03110528467784783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03258768217728079</v>
+        <v>0.03173197942489479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05659427082143115</v>
+        <v>0.05722743092649048</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02513736836352332</v>
+        <v>0.0261397612834027</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0239259891438368</v>
+        <v>0.0234054665577333</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01361467201466077</v>
+        <v>0.01418639370314236</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02723818414964698</v>
+        <v>0.02742595910808057</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03575665462641997</v>
+        <v>0.03557689240405724</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03127160700101862</v>
+        <v>0.03141421555039961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02701646948833475</v>
+        <v>0.02751873013979369</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04582230905257827</v>
+        <v>0.04595840663818834</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05939745839683367</v>
+        <v>0.0600717379397785</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05470754000257484</v>
+        <v>0.05510439679928973</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05647022143434915</v>
+        <v>0.05689430906335238</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08625349194850053</v>
+        <v>0.08811760923608923</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05528380014383514</v>
+        <v>0.05527261070548731</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05062613829938827</v>
+        <v>0.04894228161356632</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03486300914648322</v>
+        <v>0.03593265693467131</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04732794618973004</v>
+        <v>0.04675294433040723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05358062547471055</v>
+        <v>0.05353143943167138</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04863606682508427</v>
+        <v>0.04813071606619055</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04372846311218821</v>
+        <v>0.0443204455488765</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06611706468635239</v>
+        <v>0.06490830343759284</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02703742183298072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05746038120123333</v>
+        <v>0.05746038120123331</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03113903789741412</v>
@@ -1229,7 +1229,7 @@
         <v>0.03958406059223522</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0673839917415229</v>
+        <v>0.06738399174152292</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03134076964736789</v>
@@ -1241,7 +1241,7 @@
         <v>0.03385333289633128</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06335468472861688</v>
+        <v>0.06335468472861687</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01730378010710667</v>
+        <v>0.01791835721534963</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01407210910105265</v>
+        <v>0.01397421528336804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01665432331997229</v>
+        <v>0.01631116095367612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04138769340191817</v>
+        <v>0.04063523434574303</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01869082695620957</v>
+        <v>0.01829026450235667</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02342545276934831</v>
+        <v>0.02453600547626466</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02706495590852021</v>
+        <v>0.02600577815174046</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05431768915997353</v>
+        <v>0.05439391392470539</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02086162987910705</v>
+        <v>0.02085365926153112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02340487242033243</v>
+        <v>0.0231401227978639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02557737145632828</v>
+        <v>0.02464564966388028</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05283983340850345</v>
+        <v>0.0527417311157075</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05188498294397998</v>
+        <v>0.05388157338654229</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04313033110926745</v>
+        <v>0.0431116293874252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04164770117053745</v>
+        <v>0.04464441992101193</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07924692949092706</v>
+        <v>0.08014367911916727</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0495967385047771</v>
+        <v>0.05010048498098505</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05007716664403422</v>
+        <v>0.05016970662560445</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0577577351425071</v>
+        <v>0.05420745609136433</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0842926856527503</v>
+        <v>0.08383916462129816</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0451189144471322</v>
+        <v>0.04357286853338159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04420876420426563</v>
+        <v>0.04265760946725333</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04407803013483173</v>
+        <v>0.04310094909067826</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0771055701194318</v>
+        <v>0.07603245202856132</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.03059523927993291</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.09168021673467155</v>
+        <v>0.09168021673467158</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0263633463985797</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006073378198451342</v>
+        <v>0.006183837514849341</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01223292975143572</v>
+        <v>0.01424762026201786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007068074979411273</v>
+        <v>0.007166950874449379</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003365285798589248</v>
+        <v>0.003255958921737264</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02037317834460974</v>
+        <v>0.02072918763831632</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04356647221249242</v>
+        <v>0.04418593164151222</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02085665171306154</v>
+        <v>0.02073969754147393</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07705805425892451</v>
+        <v>0.07844608069658468</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01957967602389312</v>
+        <v>0.01931400016824153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04138501128104277</v>
+        <v>0.04058032411539331</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02015837879172992</v>
+        <v>0.01992725724309551</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06202572311419148</v>
+        <v>0.06210306493647143</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03547567374785377</v>
+        <v>0.03642064500866252</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05918070164893592</v>
+        <v>0.06074576710665642</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04505994571388358</v>
+        <v>0.04865020871324584</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03113573940303681</v>
+        <v>0.02967342323706629</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03890000732624453</v>
+        <v>0.03985981151557242</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0724762363584129</v>
+        <v>0.07239871956872031</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04309403850189954</v>
+        <v>0.04346022264197093</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1079089818499005</v>
+        <v>0.109301710452578</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03581148831515955</v>
+        <v>0.03625667016434397</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06602133902349959</v>
+        <v>0.06543923493139918</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03911266743007717</v>
+        <v>0.03897579178584722</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08839609693320974</v>
+        <v>0.08608378667308335</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02870500129326373</v>
+        <v>0.02897025921429693</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02954776880798284</v>
+        <v>0.02964981830806838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02910003753610555</v>
+        <v>0.029005910138973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04900519051586447</v>
+        <v>0.04911851190105578</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02307261182857289</v>
+        <v>0.02255841825551382</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03387648507627409</v>
+        <v>0.03305491898841869</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02411820717019084</v>
+        <v>0.02448837881622961</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05737966015945033</v>
+        <v>0.05771765806127975</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02709870030741852</v>
+        <v>0.02684341867358811</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03342614095466778</v>
+        <v>0.03344569333413962</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02801195020368997</v>
+        <v>0.0281394269215918</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0553627885174306</v>
+        <v>0.05521763298446176</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04198368390013796</v>
+        <v>0.04163520978323092</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04319353919476478</v>
+        <v>0.04292705846912417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04184466903202355</v>
+        <v>0.04185779808885499</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06435981748705115</v>
+        <v>0.06331036545920175</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03407826406271191</v>
+        <v>0.03388913030572289</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04662167354138228</v>
+        <v>0.04700993691550205</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0356715746298394</v>
+        <v>0.03629006720968696</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07101420753539714</v>
+        <v>0.07058407099635115</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03534754363063063</v>
+        <v>0.03547834261114597</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04323172418236039</v>
+        <v>0.04266527548255881</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03666809194053689</v>
+        <v>0.03660258985667555</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06566946484519898</v>
+        <v>0.06578575127556968</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5939</v>
+        <v>6349</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3871</v>
+        <v>3185</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6166</v>
+        <v>6206</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19456</v>
+        <v>20348</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6067</v>
+        <v>5463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3014</v>
+        <v>3160</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16537</v>
+        <v>16465</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7783</v>
+        <v>8810</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11604</v>
+        <v>11543</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12571</v>
+        <v>12238</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>41941</v>
+        <v>40787</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21656</v>
+        <v>21978</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17670</v>
+        <v>16169</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20458</v>
+        <v>20757</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39340</v>
+        <v>39896</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7764</v>
+        <v>7969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20774</v>
+        <v>20632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14069</v>
+        <v>14617</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32839</v>
+        <v>32280</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25423</v>
+        <v>25063</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>31695</v>
+        <v>31630</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30169</v>
+        <v>29900</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>66343</v>
+        <v>65760</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4571</v>
+        <v>5245</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4127</v>
+        <v>4166</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3596</v>
+        <v>3832</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15631</v>
+        <v>15061</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1934</v>
+        <v>1158</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2009</v>
+        <v>2607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6297</v>
+        <v>6071</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23959</v>
+        <v>24494</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8280</v>
+        <v>8530</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8201</v>
+        <v>8237</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12569</v>
+        <v>12950</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44328</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18127</v>
+        <v>16516</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17867</v>
+        <v>17523</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16292</v>
+        <v>17469</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32728</v>
+        <v>32969</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11376</v>
+        <v>11163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15883</v>
+        <v>15270</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21531</v>
+        <v>20901</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43336</v>
+        <v>41872</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23915</v>
+        <v>23464</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27705</v>
+        <v>27840</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32673</v>
+        <v>32865</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>70987</v>
+        <v>68654</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9500</v>
+        <v>8438</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24386</v>
+        <v>25617</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16492</v>
+        <v>15399</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17121</v>
+        <v>18583</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1940</v>
+        <v>1887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2763</v>
+        <v>2018</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7943</v>
+        <v>8111</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13467</v>
+        <v>13530</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30582</v>
+        <v>31743</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19879</v>
+        <v>18695</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>28257</v>
+        <v>28950</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27172</v>
+        <v>26800</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49853</v>
+        <v>50716</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35440</v>
+        <v>35840</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36475</v>
+        <v>35751</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12070</v>
+        <v>11517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13047</v>
+        <v>12182</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11039</v>
+        <v>10247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19187</v>
+        <v>18532</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>33130</v>
+        <v>34930</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>58485</v>
+        <v>58760</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41557</v>
+        <v>40956</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>48961</v>
+        <v>50854</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45802</v>
+        <v>45753</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>35092</v>
+        <v>36051</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>37464</v>
+        <v>36480</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>64056</v>
+        <v>64772</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17955</v>
+        <v>18671</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18343</v>
+        <v>17944</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11244</v>
+        <v>11716</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23458</v>
+        <v>23620</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>69819</v>
+        <v>69468</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>60219</v>
+        <v>60493</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>53371</v>
+        <v>54364</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>91326</v>
+        <v>91598</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73554</v>
+        <v>74389</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>63407</v>
+        <v>63866</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64920</v>
+        <v>65408</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>97625</v>
+        <v>99735</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39488</v>
+        <v>39480</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38813</v>
+        <v>37522</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28793</v>
+        <v>29676</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>40759</v>
+        <v>40264</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>104623</v>
+        <v>104527</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>93657</v>
+        <v>92684</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>86386</v>
+        <v>87556</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>131775</v>
+        <v>129366</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6066</v>
+        <v>6281</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7185</v>
+        <v>7135</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10337</v>
+        <v>10124</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23507</v>
+        <v>23079</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10630</v>
+        <v>10403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17839</v>
+        <v>18685</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19981</v>
+        <v>19199</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45130</v>
+        <v>45193</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19178</v>
+        <v>19171</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>29774</v>
+        <v>29437</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>34758</v>
+        <v>33492</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>73913</v>
+        <v>73776</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18189</v>
+        <v>18888</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22022</v>
+        <v>22013</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25851</v>
+        <v>27711</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>45009</v>
+        <v>45519</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28208</v>
+        <v>28495</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>38135</v>
+        <v>38205</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>42639</v>
+        <v>40018</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>70035</v>
+        <v>69658</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>41478</v>
+        <v>40057</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>56239</v>
+        <v>54266</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>59900</v>
+        <v>58572</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>107856</v>
+        <v>106355</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1811</v>
+        <v>1844</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3265</v>
+        <v>3802</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2030</v>
+        <v>2058</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25441</v>
+        <v>25886</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>48331</v>
+        <v>49018</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>22567</v>
+        <v>22441</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>65059</v>
+        <v>66231</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>30289</v>
+        <v>29878</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>56955</v>
+        <v>55848</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>27600</v>
+        <v>27284</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>67081</v>
+        <v>67165</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10579</v>
+        <v>10861</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15794</v>
+        <v>16212</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12939</v>
+        <v>13970</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7386</v>
+        <v>7039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>48577</v>
+        <v>49775</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>80402</v>
+        <v>80316</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46629</v>
+        <v>47025</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>91106</v>
+        <v>92281</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>55399</v>
+        <v>56088</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>90861</v>
+        <v>90060</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>53552</v>
+        <v>53364</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>95601</v>
+        <v>93100</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>93871</v>
+        <v>94738</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>101110</v>
+        <v>101459</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>98525</v>
+        <v>98206</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>168699</v>
+        <v>169089</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>77942</v>
+        <v>76205</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>120266</v>
+        <v>117349</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>85176</v>
+        <v>86483</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>208598</v>
+        <v>209826</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>180161</v>
+        <v>178463</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>233048</v>
+        <v>233185</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>193768</v>
+        <v>194649</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>391851</v>
+        <v>390823</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>137295</v>
+        <v>136155</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>147804</v>
+        <v>146893</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>141674</v>
+        <v>141719</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>221557</v>
+        <v>217944</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>115121</v>
+        <v>114482</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>165513</v>
+        <v>166891</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>125978</v>
+        <v>128162</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>258165</v>
+        <v>256601</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>235002</v>
+        <v>235871</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>301413</v>
+        <v>297464</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>253645</v>
+        <v>253192</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>464800</v>
+        <v>465623</v>
       </c>
     </row>
     <row r="32">
